--- a/src/test/resources/testdata/seller13.xlsx
+++ b/src/test/resources/testdata/seller13.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="210">
   <si>
     <t>Run Time    :</t>
   </si>
@@ -625,12 +625,37 @@
   </si>
   <si>
     <t>A25JWRDHRND0X8</t>
+  </si>
+  <si>
+    <t>30/10--0:59</t>
+  </si>
+  <si>
+    <t>30/10--8:1</t>
+  </si>
+  <si>
+    <t>30/10--15:29</t>
+  </si>
+  <si>
+    <t>30/10--22:50</t>
+  </si>
+  <si>
+    <t>31/10--11:6</t>
+  </si>
+  <si>
+    <t>31/10--21:7</t>
+  </si>
+  <si>
+    <t>1/11--21:6</t>
+  </si>
+  <si>
+    <t>2/11--18:23</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -658,12 +683,22 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="15"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -678,7 +713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -697,6 +732,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -977,22 +1013,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:J200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="34.5703125"/>
+    <col min="2" max="2" customWidth="true" style="3" width="24.7109375"/>
+    <col min="3" max="17" customWidth="true" width="12.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>0</v>
+      <c r="B1" s="2" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1002,6 +1039,30 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>209</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1066,6 +1127,12 @@
       <c r="B10" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="I10" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="J10" t="n" s="0">
+        <v>24.98</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -1074,6 +1141,30 @@
       <c r="B11" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C11" t="n" s="0">
+        <v>22.98</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>22.98</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>22.98</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>22.98</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>22.98</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>22.98</v>
+      </c>
+      <c r="I11" t="n" s="0">
+        <v>22.98</v>
+      </c>
+      <c r="J11" t="n" s="0">
+        <v>22.98</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -1082,6 +1173,30 @@
       <c r="B12" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C12" t="n" s="0">
+        <v>22.98</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>22.98</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>22.98</v>
+      </c>
+      <c r="F12" t="n" s="0">
+        <v>22.98</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>22.98</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>22.98</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>22.98</v>
+      </c>
+      <c r="J12" t="n" s="0">
+        <v>22.98</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -1210,6 +1325,30 @@
       <c r="B28" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C28" t="n" s="0">
+        <v>22.98</v>
+      </c>
+      <c r="D28" t="n" s="0">
+        <v>22.98</v>
+      </c>
+      <c r="E28" t="n" s="0">
+        <v>22.98</v>
+      </c>
+      <c r="F28" t="n" s="0">
+        <v>22.98</v>
+      </c>
+      <c r="G28" t="n" s="0">
+        <v>22.98</v>
+      </c>
+      <c r="H28" t="n" s="0">
+        <v>22.98</v>
+      </c>
+      <c r="I28" t="n" s="0">
+        <v>22.98</v>
+      </c>
+      <c r="J28" t="n" s="0">
+        <v>22.98</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
@@ -1282,6 +1421,30 @@
       <c r="B37" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C37" t="n" s="0">
+        <v>22.98</v>
+      </c>
+      <c r="D37" t="n" s="0">
+        <v>22.98</v>
+      </c>
+      <c r="E37" t="n" s="0">
+        <v>22.98</v>
+      </c>
+      <c r="F37" t="n" s="0">
+        <v>22.98</v>
+      </c>
+      <c r="G37" t="n" s="0">
+        <v>22.98</v>
+      </c>
+      <c r="H37" t="n" s="0">
+        <v>22.98</v>
+      </c>
+      <c r="I37" t="n" s="0">
+        <v>22.98</v>
+      </c>
+      <c r="J37" t="n" s="0">
+        <v>22.98</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
@@ -1378,6 +1541,30 @@
       <c r="B49" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C49" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="D49" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="E49" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="F49" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="G49" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="H49" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="I49" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="J49" t="n" s="0">
+        <v>24.98</v>
+      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
@@ -1442,6 +1629,30 @@
       <c r="B57" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C57" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="D57" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="E57" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="F57" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="G57" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="H57" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="I57" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="J57" t="n" s="0">
+        <v>24.98</v>
+      </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
@@ -1498,6 +1709,30 @@
       <c r="B64" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C64" t="n" s="0">
+        <v>25.98</v>
+      </c>
+      <c r="D64" t="n" s="0">
+        <v>25.98</v>
+      </c>
+      <c r="E64" t="n" s="0">
+        <v>25.98</v>
+      </c>
+      <c r="F64" t="n" s="0">
+        <v>25.98</v>
+      </c>
+      <c r="G64" t="n" s="0">
+        <v>25.98</v>
+      </c>
+      <c r="H64" t="n" s="0">
+        <v>25.98</v>
+      </c>
+      <c r="I64" t="n" s="0">
+        <v>25.98</v>
+      </c>
+      <c r="J64" t="n" s="0">
+        <v>25.98</v>
+      </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
@@ -1514,6 +1749,30 @@
       <c r="B66" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C66" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="D66" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="E66" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="F66" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="G66" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="H66" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="I66" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="J66" t="n" s="0">
+        <v>24.98</v>
+      </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
@@ -1570,6 +1829,18 @@
       <c r="B73" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C73" t="n" s="0">
+        <v>17.98</v>
+      </c>
+      <c r="D73" t="n" s="0">
+        <v>17.98</v>
+      </c>
+      <c r="E73" t="n" s="0">
+        <v>17.98</v>
+      </c>
+      <c r="F73" t="n" s="0">
+        <v>17.98</v>
+      </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
@@ -1674,6 +1945,30 @@
       <c r="B86" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C86" t="n" s="0">
+        <v>23.98</v>
+      </c>
+      <c r="D86" t="n" s="0">
+        <v>23.98</v>
+      </c>
+      <c r="E86" t="n" s="0">
+        <v>23.98</v>
+      </c>
+      <c r="F86" t="n" s="0">
+        <v>23.98</v>
+      </c>
+      <c r="G86" t="n" s="0">
+        <v>23.98</v>
+      </c>
+      <c r="H86" t="n" s="0">
+        <v>23.98</v>
+      </c>
+      <c r="I86" t="n" s="0">
+        <v>23.98</v>
+      </c>
+      <c r="J86" t="n" s="0">
+        <v>23.98</v>
+      </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
@@ -1698,6 +1993,30 @@
       <c r="B89" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C89" t="n" s="0">
+        <v>28.98</v>
+      </c>
+      <c r="D89" t="n" s="0">
+        <v>28.98</v>
+      </c>
+      <c r="E89" t="n" s="0">
+        <v>28.98</v>
+      </c>
+      <c r="F89" t="n" s="0">
+        <v>28.98</v>
+      </c>
+      <c r="G89" t="n" s="0">
+        <v>28.98</v>
+      </c>
+      <c r="H89" t="n" s="0">
+        <v>28.98</v>
+      </c>
+      <c r="I89" t="n" s="0">
+        <v>28.98</v>
+      </c>
+      <c r="J89" t="n" s="0">
+        <v>28.98</v>
+      </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
@@ -1714,6 +2033,30 @@
       <c r="B91" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C91" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="D91" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="E91" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="F91" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="G91" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="H91" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="I91" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="J91" t="n" s="0">
+        <v>24.98</v>
+      </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
@@ -1738,6 +2081,30 @@
       <c r="B94" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C94" t="n" s="0">
+        <v>22.98</v>
+      </c>
+      <c r="D94" t="n" s="0">
+        <v>22.98</v>
+      </c>
+      <c r="E94" t="n" s="0">
+        <v>22.98</v>
+      </c>
+      <c r="F94" t="n" s="0">
+        <v>22.98</v>
+      </c>
+      <c r="G94" t="n" s="0">
+        <v>22.98</v>
+      </c>
+      <c r="H94" t="n" s="0">
+        <v>22.98</v>
+      </c>
+      <c r="I94" t="n" s="0">
+        <v>22.98</v>
+      </c>
+      <c r="J94" t="n" s="0">
+        <v>22.98</v>
+      </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
@@ -1770,6 +2137,30 @@
       <c r="B98" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C98" t="n" s="0">
+        <v>26.98</v>
+      </c>
+      <c r="D98" t="n" s="0">
+        <v>26.98</v>
+      </c>
+      <c r="E98" t="n" s="0">
+        <v>26.98</v>
+      </c>
+      <c r="F98" t="n" s="0">
+        <v>26.98</v>
+      </c>
+      <c r="G98" t="n" s="0">
+        <v>26.98</v>
+      </c>
+      <c r="H98" t="n" s="0">
+        <v>26.98</v>
+      </c>
+      <c r="I98" t="n" s="0">
+        <v>26.98</v>
+      </c>
+      <c r="J98" t="n" s="0">
+        <v>26.98</v>
+      </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
@@ -1914,6 +2305,30 @@
       <c r="B116" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C116" t="n" s="0">
+        <v>18.98</v>
+      </c>
+      <c r="D116" t="n" s="0">
+        <v>18.98</v>
+      </c>
+      <c r="E116" t="n" s="0">
+        <v>18.98</v>
+      </c>
+      <c r="F116" t="n" s="0">
+        <v>18.98</v>
+      </c>
+      <c r="G116" t="n" s="0">
+        <v>18.98</v>
+      </c>
+      <c r="H116" t="n" s="0">
+        <v>18.98</v>
+      </c>
+      <c r="I116" t="n" s="0">
+        <v>18.98</v>
+      </c>
+      <c r="J116" t="n" s="0">
+        <v>18.98</v>
+      </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
@@ -1986,6 +2401,30 @@
       <c r="B125" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C125" t="n" s="0">
+        <v>25.98</v>
+      </c>
+      <c r="D125" t="n" s="0">
+        <v>25.98</v>
+      </c>
+      <c r="E125" t="n" s="0">
+        <v>25.98</v>
+      </c>
+      <c r="F125" t="n" s="0">
+        <v>25.98</v>
+      </c>
+      <c r="G125" t="n" s="0">
+        <v>25.98</v>
+      </c>
+      <c r="H125" t="n" s="0">
+        <v>25.98</v>
+      </c>
+      <c r="I125" t="n" s="0">
+        <v>25.98</v>
+      </c>
+      <c r="J125" t="n" s="0">
+        <v>25.98</v>
+      </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
@@ -1994,6 +2433,21 @@
       <c r="B126" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C126" t="n" s="0">
+        <v>19.98</v>
+      </c>
+      <c r="D126" t="n" s="0">
+        <v>19.98</v>
+      </c>
+      <c r="E126" t="n" s="8">
+        <v>24.98</v>
+      </c>
+      <c r="F126" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="I126" t="n" s="0">
+        <v>26.98</v>
+      </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
@@ -2010,6 +2464,30 @@
       <c r="B128" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C128" t="n" s="0">
+        <v>44.98</v>
+      </c>
+      <c r="D128" t="n" s="0">
+        <v>44.98</v>
+      </c>
+      <c r="E128" t="n" s="0">
+        <v>44.98</v>
+      </c>
+      <c r="F128" t="n" s="0">
+        <v>44.98</v>
+      </c>
+      <c r="G128" t="n" s="0">
+        <v>44.98</v>
+      </c>
+      <c r="H128" t="n" s="0">
+        <v>44.98</v>
+      </c>
+      <c r="I128" t="n" s="0">
+        <v>44.98</v>
+      </c>
+      <c r="J128" t="n" s="0">
+        <v>44.98</v>
+      </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
@@ -2242,6 +2720,30 @@
       <c r="B157" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C157" t="n" s="0">
+        <v>39.98</v>
+      </c>
+      <c r="D157" t="n" s="0">
+        <v>39.98</v>
+      </c>
+      <c r="E157" t="n" s="0">
+        <v>39.98</v>
+      </c>
+      <c r="F157" t="n" s="0">
+        <v>39.98</v>
+      </c>
+      <c r="G157" t="n" s="0">
+        <v>39.98</v>
+      </c>
+      <c r="H157" t="n" s="0">
+        <v>39.98</v>
+      </c>
+      <c r="I157" t="n" s="0">
+        <v>39.98</v>
+      </c>
+      <c r="J157" t="n" s="0">
+        <v>39.98</v>
+      </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
@@ -2282,6 +2784,30 @@
       <c r="B162" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C162" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="D162" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="E162" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="F162" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="G162" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="H162" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="I162" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="J162" t="n" s="0">
+        <v>24.98</v>
+      </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
@@ -2298,6 +2824,30 @@
       <c r="B164" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C164" t="n" s="0">
+        <v>18.98</v>
+      </c>
+      <c r="D164" t="n" s="0">
+        <v>18.98</v>
+      </c>
+      <c r="E164" t="n" s="0">
+        <v>18.98</v>
+      </c>
+      <c r="F164" t="n" s="0">
+        <v>18.98</v>
+      </c>
+      <c r="G164" t="n" s="0">
+        <v>18.98</v>
+      </c>
+      <c r="H164" t="n" s="0">
+        <v>18.98</v>
+      </c>
+      <c r="I164" t="n" s="0">
+        <v>18.98</v>
+      </c>
+      <c r="J164" t="n" s="0">
+        <v>18.98</v>
+      </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
@@ -2349,7 +2899,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B171" s="7" t="s">
         <v>201</v>
@@ -2357,23 +2907,23 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B172" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="5" t="s">
-        <v>172</v>
+      <c r="A173" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="B173" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
-        <v>173</v>
+      <c r="A174" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="B174" s="7" t="s">
         <v>201</v>
@@ -2381,15 +2931,39 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B175" s="7" t="s">
         <v>201</v>
+      </c>
+      <c r="C175" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="D175" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="E175" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="F175" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="G175" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="H175" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="I175" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="J175" t="n" s="0">
+        <v>24.98</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B176" s="7" t="s">
         <v>201</v>
@@ -2397,7 +2971,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B177" s="7" t="s">
         <v>201</v>
@@ -2405,7 +2979,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B178" s="7" t="s">
         <v>201</v>
@@ -2413,7 +2987,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B179" s="7" t="s">
         <v>201</v>
@@ -2421,7 +2995,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B180" s="7" t="s">
         <v>201</v>
@@ -2429,7 +3003,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B181" s="7" t="s">
         <v>201</v>
@@ -2437,15 +3011,39 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B182" s="7" t="s">
         <v>201</v>
       </c>
+      <c r="C182" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="D182" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="E182" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="F182" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="G182" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="H182" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="I182" t="n" s="0">
+        <v>24.98</v>
+      </c>
+      <c r="J182" t="n" s="0">
+        <v>24.98</v>
+      </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="5" t="s">
-        <v>182</v>
+      <c r="A183" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="B183" s="7" t="s">
         <v>201</v>
@@ -2453,23 +3051,23 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B184" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="4" t="s">
-        <v>184</v>
+      <c r="A185" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="B185" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="5" t="s">
-        <v>185</v>
+      <c r="A186" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="B186" s="7" t="s">
         <v>201</v>
@@ -2477,15 +3075,15 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B187" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="4" t="s">
-        <v>187</v>
+      <c r="A188" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="B188" s="7" t="s">
         <v>201</v>
@@ -2493,15 +3091,39 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B189" s="7" t="s">
         <v>201</v>
+      </c>
+      <c r="C189" t="n" s="0">
+        <v>44.98</v>
+      </c>
+      <c r="D189" t="n" s="0">
+        <v>44.98</v>
+      </c>
+      <c r="E189" t="n" s="0">
+        <v>44.98</v>
+      </c>
+      <c r="F189" t="n" s="0">
+        <v>44.98</v>
+      </c>
+      <c r="G189" t="n" s="0">
+        <v>44.98</v>
+      </c>
+      <c r="H189" t="n" s="0">
+        <v>44.98</v>
+      </c>
+      <c r="I189" t="n" s="0">
+        <v>44.98</v>
+      </c>
+      <c r="J189" t="n" s="0">
+        <v>44.98</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B190" s="7" t="s">
         <v>201</v>
@@ -2509,7 +3131,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B191" s="7" t="s">
         <v>201</v>
@@ -2517,23 +3139,23 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B192" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="5" t="s">
-        <v>192</v>
+      <c r="A193" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="B193" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="4" t="s">
-        <v>193</v>
+      <c r="A194" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="B194" s="7" t="s">
         <v>201</v>
@@ -2541,7 +3163,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B195" s="7" t="s">
         <v>201</v>
@@ -2549,7 +3171,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B196" s="7" t="s">
         <v>201</v>
@@ -2557,41 +3179,57 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B197" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="5" t="s">
-        <v>197</v>
+      <c r="A198" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="B198" s="7" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="4" t="s">
-        <v>198</v>
+      <c r="A199" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="B199" s="7" t="s">
         <v>201</v>
+      </c>
+      <c r="C199" t="n" s="0">
+        <v>39.98</v>
+      </c>
+      <c r="D199" t="n" s="0">
+        <v>39.98</v>
+      </c>
+      <c r="E199" t="n" s="0">
+        <v>39.98</v>
+      </c>
+      <c r="F199" t="n" s="0">
+        <v>39.98</v>
+      </c>
+      <c r="G199" t="n" s="0">
+        <v>39.98</v>
+      </c>
+      <c r="H199" t="n" s="0">
+        <v>39.98</v>
+      </c>
+      <c r="I199" t="n" s="0">
+        <v>39.98</v>
+      </c>
+      <c r="J199" t="n" s="0">
+        <v>39.98</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B201" s="7" t="s">
         <v>201</v>
       </c>
     </row>
